--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501664999999999</v>
+        <v>3.5230995</v>
       </c>
       <c r="H2">
-        <v>9.003329999999998</v>
+        <v>7.046199000000001</v>
       </c>
       <c r="I2">
-        <v>0.02772143475899087</v>
+        <v>0.06387197570030337</v>
       </c>
       <c r="J2">
-        <v>0.01867425331407778</v>
+        <v>0.04375385827683532</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.145848666666667</v>
+        <v>0.04730233333333334</v>
       </c>
       <c r="N2">
-        <v>3.437546</v>
+        <v>0.141907</v>
       </c>
       <c r="O2">
-        <v>0.456369592955633</v>
+        <v>0.03294128024763935</v>
       </c>
       <c r="P2">
-        <v>0.456369592955633</v>
+        <v>0.036091037503834</v>
       </c>
       <c r="Q2">
-        <v>5.158226838029998</v>
+        <v>0.1666508269155</v>
       </c>
       <c r="R2">
-        <v>30.94936102817999</v>
+        <v>0.9999049614930001</v>
       </c>
       <c r="S2">
-        <v>0.0126512198971068</v>
+        <v>0.002104024651514104</v>
       </c>
       <c r="T2">
-        <v>0.008522361383696057</v>
+        <v>0.001579122140006701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501664999999999</v>
+        <v>3.5230995</v>
       </c>
       <c r="H3">
-        <v>9.003329999999998</v>
+        <v>7.046199000000001</v>
       </c>
       <c r="I3">
-        <v>0.02772143475899087</v>
+        <v>0.06387197570030337</v>
       </c>
       <c r="J3">
-        <v>0.01867425331407778</v>
+        <v>0.04375385827683532</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2430366666666667</v>
+        <v>0.3759595</v>
       </c>
       <c r="N3">
-        <v>0.72911</v>
+        <v>0.751919</v>
       </c>
       <c r="O3">
-        <v>0.09679685273153629</v>
+        <v>0.2618176816773457</v>
       </c>
       <c r="P3">
-        <v>0.09679685273153626</v>
+        <v>0.191234659522401</v>
       </c>
       <c r="Q3">
-        <v>1.09406965605</v>
+        <v>1.32454272647025</v>
       </c>
       <c r="R3">
-        <v>6.564417936299999</v>
+        <v>5.298170905881</v>
       </c>
       <c r="S3">
-        <v>0.00268334763787293</v>
+        <v>0.01672281260200519</v>
       </c>
       <c r="T3">
-        <v>0.00180760894791419</v>
+        <v>0.008367254190361989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501664999999999</v>
+        <v>3.5230995</v>
       </c>
       <c r="H4">
-        <v>9.003329999999998</v>
+        <v>7.046199000000001</v>
       </c>
       <c r="I4">
-        <v>0.02772143475899087</v>
+        <v>0.06387197570030337</v>
       </c>
       <c r="J4">
-        <v>0.01867425331407778</v>
+        <v>0.04375385827683532</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.121905666666666</v>
+        <v>0.75392</v>
       </c>
       <c r="N4">
-        <v>3.365717</v>
+        <v>2.26176</v>
       </c>
       <c r="O4">
-        <v>0.4468335543128308</v>
+        <v>0.5250288570183343</v>
       </c>
       <c r="P4">
-        <v>0.4468335543128307</v>
+        <v>0.5752307143740027</v>
       </c>
       <c r="Q4">
-        <v>5.050443472934998</v>
+        <v>2.65613517504</v>
       </c>
       <c r="R4">
-        <v>30.30266083760999</v>
+        <v>15.93681105024</v>
       </c>
       <c r="S4">
-        <v>0.01238686722401114</v>
+        <v>0.0335346303974331</v>
       </c>
       <c r="T4">
-        <v>0.008344282982467534</v>
+        <v>0.02516856315320285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.104210333333334</v>
+        <v>3.5230995</v>
       </c>
       <c r="H5">
-        <v>12.312631</v>
+        <v>7.046199000000001</v>
       </c>
       <c r="I5">
-        <v>0.02527389288022902</v>
+        <v>0.06387197570030337</v>
       </c>
       <c r="J5">
-        <v>0.02553823865800397</v>
+        <v>0.04375385827683532</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.145848666666667</v>
+        <v>0.2587773333333334</v>
       </c>
       <c r="N5">
-        <v>3.437546</v>
+        <v>0.776332</v>
       </c>
       <c r="O5">
-        <v>0.456369592955633</v>
+        <v>0.1802121810566805</v>
       </c>
       <c r="P5">
-        <v>0.456369592955633</v>
+        <v>0.1974435885997622</v>
       </c>
       <c r="Q5">
-        <v>4.702803938169555</v>
+        <v>0.9116982936780001</v>
       </c>
       <c r="R5">
-        <v>42.325235443526</v>
+        <v>5.470189762068</v>
       </c>
       <c r="S5">
-        <v>0.01153423620615439</v>
+        <v>0.01151050804935097</v>
       </c>
       <c r="T5">
-        <v>0.01165487558115708</v>
+        <v>0.008638918793263775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>12.312631</v>
       </c>
       <c r="I6">
-        <v>0.02527389288022902</v>
+        <v>0.07440721520343113</v>
       </c>
       <c r="J6">
-        <v>0.02553823865800397</v>
+        <v>0.07645613071515139</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2430366666666667</v>
+        <v>0.04730233333333334</v>
       </c>
       <c r="N6">
-        <v>0.72911</v>
+        <v>0.141907</v>
       </c>
       <c r="O6">
-        <v>0.09679685273153629</v>
+        <v>0.03294128024763935</v>
       </c>
       <c r="P6">
-        <v>0.09679685273153626</v>
+        <v>0.036091037503834</v>
       </c>
       <c r="Q6">
-        <v>0.9974735987122223</v>
+        <v>0.1941387252574445</v>
       </c>
       <c r="R6">
-        <v>8.977262388410001</v>
+        <v>1.747248527317</v>
       </c>
       <c r="S6">
-        <v>0.002446433287080153</v>
+        <v>0.002451068928462636</v>
       </c>
       <c r="T6">
-        <v>0.002472021126401637</v>
+        <v>0.002759381081038564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>12.312631</v>
       </c>
       <c r="I7">
-        <v>0.02527389288022902</v>
+        <v>0.07440721520343113</v>
       </c>
       <c r="J7">
-        <v>0.02553823865800397</v>
+        <v>0.07645613071515139</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.121905666666666</v>
+        <v>0.3759595</v>
       </c>
       <c r="N7">
-        <v>3.365717</v>
+        <v>0.751919</v>
       </c>
       <c r="O7">
-        <v>0.4468335543128308</v>
+        <v>0.2618176816773457</v>
       </c>
       <c r="P7">
-        <v>0.4468335543128307</v>
+        <v>0.191234659522401</v>
       </c>
       <c r="Q7">
-        <v>4.604536830158555</v>
+        <v>1.543016864814833</v>
       </c>
       <c r="R7">
-        <v>41.440831471427</v>
+        <v>9.258101188889</v>
       </c>
       <c r="S7">
-        <v>0.01129322338699448</v>
+        <v>0.01948112458462969</v>
       </c>
       <c r="T7">
-        <v>0.01141134195044525</v>
+        <v>0.01462106212571216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.56890300000001</v>
+        <v>4.104210333333334</v>
       </c>
       <c r="H8">
-        <v>151.706709</v>
+        <v>12.312631</v>
       </c>
       <c r="I8">
-        <v>0.3114053456550494</v>
+        <v>0.07440721520343113</v>
       </c>
       <c r="J8">
-        <v>0.3146624097207461</v>
+        <v>0.07645613071515139</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.145848666666667</v>
+        <v>0.75392</v>
       </c>
       <c r="N8">
-        <v>3.437546</v>
+        <v>2.26176</v>
       </c>
       <c r="O8">
-        <v>0.456369592955633</v>
+        <v>0.5250288570183343</v>
       </c>
       <c r="P8">
-        <v>0.456369592955633</v>
+        <v>0.5752307143740027</v>
       </c>
       <c r="Q8">
-        <v>57.944310077346</v>
+        <v>3.094246254506667</v>
       </c>
       <c r="R8">
-        <v>521.498790696114</v>
+        <v>27.84821629056</v>
       </c>
       <c r="S8">
-        <v>0.1421159308408031</v>
+        <v>0.03906593515217468</v>
       </c>
       <c r="T8">
-        <v>0.1436023558426955</v>
+        <v>0.04397991468954867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.56890300000001</v>
+        <v>4.104210333333334</v>
       </c>
       <c r="H9">
-        <v>151.706709</v>
+        <v>12.312631</v>
       </c>
       <c r="I9">
-        <v>0.3114053456550494</v>
+        <v>0.07440721520343113</v>
       </c>
       <c r="J9">
-        <v>0.3146624097207461</v>
+        <v>0.07645613071515139</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2430366666666667</v>
+        <v>0.2587773333333334</v>
       </c>
       <c r="N9">
-        <v>0.72911</v>
+        <v>0.776332</v>
       </c>
       <c r="O9">
-        <v>0.09679685273153629</v>
+        <v>0.1802121810566805</v>
       </c>
       <c r="P9">
-        <v>0.09679685273153626</v>
+        <v>0.1974435885997622</v>
       </c>
       <c r="Q9">
-        <v>12.29009762211</v>
+        <v>1.062076605499111</v>
       </c>
       <c r="R9">
-        <v>110.61087859899</v>
+        <v>9.558689449492</v>
       </c>
       <c r="S9">
-        <v>0.03014305738318497</v>
+        <v>0.01340908653816412</v>
       </c>
       <c r="T9">
-        <v>0.03045833093388938</v>
+        <v>0.015095772818852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,113 +1039,113 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.56890300000001</v>
+        <v>15.26851466666667</v>
       </c>
       <c r="H10">
-        <v>151.706709</v>
+        <v>45.805544</v>
       </c>
       <c r="I10">
-        <v>0.3114053456550494</v>
+        <v>0.2768102909864052</v>
       </c>
       <c r="J10">
-        <v>0.3146624097207461</v>
+        <v>0.2844326821410159</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.121905666666666</v>
+        <v>0.04730233333333334</v>
       </c>
       <c r="N10">
-        <v>3.365717</v>
+        <v>0.141907</v>
       </c>
       <c r="O10">
-        <v>0.4468335543128308</v>
+        <v>0.03294128024763935</v>
       </c>
       <c r="P10">
-        <v>0.4468335543128307</v>
+        <v>0.036091037503834</v>
       </c>
       <c r="Q10">
-        <v>56.733538832817</v>
+        <v>0.7222363702675556</v>
       </c>
       <c r="R10">
-        <v>510.601849495353</v>
+        <v>6.500127332408</v>
       </c>
       <c r="S10">
-        <v>0.1391463574310614</v>
+        <v>0.009118485370813773</v>
       </c>
       <c r="T10">
-        <v>0.1406017229441612</v>
+        <v>0.0102654705984675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5410005</v>
+        <v>15.26851466666667</v>
       </c>
       <c r="H11">
-        <v>1.082001</v>
+        <v>45.805544</v>
       </c>
       <c r="I11">
-        <v>0.003331502913995475</v>
+        <v>0.2768102909864052</v>
       </c>
       <c r="J11">
-        <v>0.002244231940858047</v>
+        <v>0.2844326821410159</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>1.145848666666667</v>
+        <v>0.3759595</v>
       </c>
       <c r="N11">
-        <v>3.437546</v>
+        <v>0.751919</v>
       </c>
       <c r="O11">
-        <v>0.456369592955633</v>
+        <v>0.2618176816773457</v>
       </c>
       <c r="P11">
-        <v>0.456369592955633</v>
+        <v>0.191234659522401</v>
       </c>
       <c r="Q11">
-        <v>0.6199047015909999</v>
+        <v>5.740343139822667</v>
       </c>
       <c r="R11">
-        <v>3.719428209546</v>
+        <v>34.442058838936</v>
       </c>
       <c r="S11">
-        <v>0.00152039662879062</v>
+        <v>0.07247382865049208</v>
       </c>
       <c r="T11">
-        <v>0.001024199217347417</v>
+        <v>0.05439338712628048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5410005</v>
+        <v>15.26851466666667</v>
       </c>
       <c r="H12">
-        <v>1.082001</v>
+        <v>45.805544</v>
       </c>
       <c r="I12">
-        <v>0.003331502913995475</v>
+        <v>0.2768102909864052</v>
       </c>
       <c r="J12">
-        <v>0.002244231940858047</v>
+        <v>0.2844326821410159</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2430366666666667</v>
+        <v>0.75392</v>
       </c>
       <c r="N12">
-        <v>0.72911</v>
+        <v>2.26176</v>
       </c>
       <c r="O12">
-        <v>0.09679685273153629</v>
+        <v>0.5250288570183343</v>
       </c>
       <c r="P12">
-        <v>0.09679685273153626</v>
+        <v>0.5752307143740027</v>
       </c>
       <c r="Q12">
-        <v>0.131482958185</v>
+        <v>11.51123857749333</v>
       </c>
       <c r="R12">
-        <v>0.78889774911</v>
+        <v>103.60114719744</v>
       </c>
       <c r="S12">
-        <v>0.000322478996940704</v>
+        <v>0.1453333906875049</v>
       </c>
       <c r="T12">
-        <v>0.0002172345886746462</v>
+        <v>0.1636144149392902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5410005</v>
+        <v>15.26851466666667</v>
       </c>
       <c r="H13">
-        <v>1.082001</v>
+        <v>45.805544</v>
       </c>
       <c r="I13">
-        <v>0.003331502913995475</v>
+        <v>0.2768102909864052</v>
       </c>
       <c r="J13">
-        <v>0.002244231940858047</v>
+        <v>0.2844326821410159</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,33 +1243,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.121905666666666</v>
+        <v>0.2587773333333334</v>
       </c>
       <c r="N13">
-        <v>3.365717</v>
+        <v>0.776332</v>
       </c>
       <c r="O13">
-        <v>0.4468335543128308</v>
+        <v>0.1802121810566805</v>
       </c>
       <c r="P13">
-        <v>0.4468335543128307</v>
+        <v>0.1974435885997622</v>
       </c>
       <c r="Q13">
-        <v>0.6069515266194999</v>
+        <v>3.951145509400889</v>
       </c>
       <c r="R13">
-        <v>3.641709159717</v>
+        <v>35.560309584608</v>
       </c>
       <c r="S13">
-        <v>0.001488627288264151</v>
+        <v>0.04988458627759447</v>
       </c>
       <c r="T13">
-        <v>0.001002798134835984</v>
+        <v>0.05615940947697767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.369956999999999</v>
+        <v>0.91143</v>
       </c>
       <c r="H14">
-        <v>10.109871</v>
+        <v>1.82286</v>
       </c>
       <c r="I14">
-        <v>0.02075233121880561</v>
+        <v>0.01652375552053738</v>
       </c>
       <c r="J14">
-        <v>0.02096938488610868</v>
+        <v>0.01131917479175822</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.145848666666667</v>
+        <v>0.04730233333333334</v>
       </c>
       <c r="N14">
-        <v>3.437546</v>
+        <v>0.141907</v>
       </c>
       <c r="O14">
-        <v>0.456369592955633</v>
+        <v>0.03294128024763935</v>
       </c>
       <c r="P14">
-        <v>0.456369592955633</v>
+        <v>0.036091037503834</v>
       </c>
       <c r="Q14">
-        <v>3.861460735173999</v>
+        <v>0.04311276567</v>
       </c>
       <c r="R14">
-        <v>34.75314661656599</v>
+        <v>0.25867659402</v>
       </c>
       <c r="S14">
-        <v>0.009470732951206795</v>
+        <v>0.0005443136613454997</v>
       </c>
       <c r="T14">
-        <v>0.009569789645003419</v>
+        <v>0.0004085207619217985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,184 +1340,184 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.369956999999999</v>
+        <v>0.91143</v>
       </c>
       <c r="H15">
-        <v>10.109871</v>
+        <v>1.82286</v>
       </c>
       <c r="I15">
-        <v>0.02075233121880561</v>
+        <v>0.01652375552053738</v>
       </c>
       <c r="J15">
-        <v>0.02096938488610868</v>
+        <v>0.01131917479175822</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.2430366666666667</v>
+        <v>0.3759595</v>
       </c>
       <c r="N15">
-        <v>0.72911</v>
+        <v>0.751919</v>
       </c>
       <c r="O15">
-        <v>0.09679685273153629</v>
+        <v>0.2618176816773457</v>
       </c>
       <c r="P15">
-        <v>0.09679685273153626</v>
+        <v>0.191234659522401</v>
       </c>
       <c r="Q15">
-        <v>0.8190231160899999</v>
+        <v>0.342660767085</v>
       </c>
       <c r="R15">
-        <v>7.371208044809999</v>
+        <v>1.37064306834</v>
       </c>
       <c r="S15">
-        <v>0.00200876034882279</v>
+        <v>0.00432621136299034</v>
       </c>
       <c r="T15">
-        <v>0.002029770460691564</v>
+        <v>0.002164618537376429</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.369956999999999</v>
+        <v>0.91143</v>
       </c>
       <c r="H16">
-        <v>10.109871</v>
+        <v>1.82286</v>
       </c>
       <c r="I16">
-        <v>0.02075233121880561</v>
+        <v>0.01652375552053738</v>
       </c>
       <c r="J16">
-        <v>0.02096938488610868</v>
+        <v>0.01131917479175822</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.121905666666666</v>
+        <v>0.75392</v>
       </c>
       <c r="N16">
-        <v>3.365717</v>
+        <v>2.26176</v>
       </c>
       <c r="O16">
-        <v>0.4468335543128308</v>
+        <v>0.5250288570183343</v>
       </c>
       <c r="P16">
-        <v>0.4468335543128307</v>
+        <v>0.5752307143740027</v>
       </c>
       <c r="Q16">
-        <v>3.780773854722999</v>
+        <v>0.6871453056</v>
       </c>
       <c r="R16">
-        <v>34.02696469250699</v>
+        <v>4.122871833600001</v>
       </c>
       <c r="S16">
-        <v>0.009272837918776032</v>
+        <v>0.008675448474598134</v>
       </c>
       <c r="T16">
-        <v>0.009369824780413694</v>
+        <v>0.006511137001587287</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>99.30358633333333</v>
+        <v>0.91143</v>
       </c>
       <c r="H17">
-        <v>297.910759</v>
+        <v>1.82286</v>
       </c>
       <c r="I17">
-        <v>0.6115154925729297</v>
+        <v>0.01652375552053738</v>
       </c>
       <c r="J17">
-        <v>0.6179114814802055</v>
+        <v>0.01131917479175822</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.145848666666667</v>
+        <v>0.2587773333333334</v>
       </c>
       <c r="N17">
-        <v>3.437546</v>
+        <v>0.776332</v>
       </c>
       <c r="O17">
-        <v>0.456369592955633</v>
+        <v>0.1802121810566805</v>
       </c>
       <c r="P17">
-        <v>0.456369592955633</v>
+        <v>0.1974435885997622</v>
       </c>
       <c r="Q17">
-        <v>113.7868819952682</v>
+        <v>0.23585742492</v>
       </c>
       <c r="R17">
-        <v>1024.081937957414</v>
+        <v>1.41514454952</v>
       </c>
       <c r="S17">
-        <v>0.2790770764315714</v>
+        <v>0.002977782021603406</v>
       </c>
       <c r="T17">
-        <v>0.2819960112857335</v>
+        <v>0.00223489849087271</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>99.30358633333333</v>
+        <v>6.536988333333333</v>
       </c>
       <c r="H18">
-        <v>297.910759</v>
+        <v>19.610965</v>
       </c>
       <c r="I18">
-        <v>0.6115154925729297</v>
+        <v>0.1185122248122238</v>
       </c>
       <c r="J18">
-        <v>0.6179114814802055</v>
+        <v>0.1217756386502819</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,33 +1553,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2430366666666667</v>
+        <v>0.04730233333333334</v>
       </c>
       <c r="N18">
-        <v>0.72911</v>
+        <v>0.141907</v>
       </c>
       <c r="O18">
-        <v>0.09679685273153629</v>
+        <v>0.03294128024763935</v>
       </c>
       <c r="P18">
-        <v>0.09679685273153626</v>
+        <v>0.036091037503834</v>
       </c>
       <c r="Q18">
-        <v>24.13441261049889</v>
+        <v>0.3092148011394444</v>
       </c>
       <c r="R18">
-        <v>217.20971349449</v>
+        <v>2.782933210255</v>
       </c>
       <c r="S18">
-        <v>0.05919277507763475</v>
+        <v>0.003903944410310702</v>
       </c>
       <c r="T18">
-        <v>0.05981188667396484</v>
+        <v>0.004395009141580661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,418 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>99.30358633333333</v>
+        <v>6.536988333333333</v>
       </c>
       <c r="H19">
-        <v>297.910759</v>
+        <v>19.610965</v>
       </c>
       <c r="I19">
-        <v>0.6115154925729297</v>
+        <v>0.1185122248122238</v>
       </c>
       <c r="J19">
-        <v>0.6179114814802055</v>
+        <v>0.1217756386502819</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.3759595</v>
+      </c>
+      <c r="N19">
+        <v>0.751919</v>
+      </c>
+      <c r="O19">
+        <v>0.2618176816773457</v>
+      </c>
+      <c r="P19">
+        <v>0.191234659522401</v>
+      </c>
+      <c r="Q19">
+        <v>2.457642865305834</v>
+      </c>
+      <c r="R19">
+        <v>14.745857191835</v>
+      </c>
+      <c r="S19">
+        <v>0.03102859595076084</v>
+      </c>
+      <c r="T19">
+        <v>0.02328772279540959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.536988333333333</v>
+      </c>
+      <c r="H20">
+        <v>19.610965</v>
+      </c>
+      <c r="I20">
+        <v>0.1185122248122238</v>
+      </c>
+      <c r="J20">
+        <v>0.1217756386502819</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.75392</v>
+      </c>
+      <c r="N20">
+        <v>2.26176</v>
+      </c>
+      <c r="O20">
+        <v>0.5250288570183343</v>
+      </c>
+      <c r="P20">
+        <v>0.5752307143740027</v>
+      </c>
+      <c r="Q20">
+        <v>4.928366244266667</v>
+      </c>
+      <c r="R20">
+        <v>44.3552961984</v>
+      </c>
+      <c r="S20">
+        <v>0.06222233793586174</v>
+      </c>
+      <c r="T20">
+        <v>0.07004908761415207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.536988333333333</v>
+      </c>
+      <c r="H21">
+        <v>19.610965</v>
+      </c>
+      <c r="I21">
+        <v>0.1185122248122238</v>
+      </c>
+      <c r="J21">
+        <v>0.1217756386502819</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M19">
-        <v>1.121905666666666</v>
-      </c>
-      <c r="N19">
-        <v>3.365717</v>
-      </c>
-      <c r="O19">
-        <v>0.4468335543128308</v>
-      </c>
-      <c r="P19">
-        <v>0.4468335543128307</v>
-      </c>
-      <c r="Q19">
-        <v>111.4092562276892</v>
-      </c>
-      <c r="R19">
-        <v>1002.683306049203</v>
-      </c>
-      <c r="S19">
-        <v>0.2732456410637237</v>
-      </c>
-      <c r="T19">
-        <v>0.2761035835205071</v>
+      <c r="M21">
+        <v>0.2587773333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.776332</v>
+      </c>
+      <c r="O21">
+        <v>0.1802121810566805</v>
+      </c>
+      <c r="P21">
+        <v>0.1974435885997622</v>
+      </c>
+      <c r="Q21">
+        <v>1.691624408931111</v>
+      </c>
+      <c r="R21">
+        <v>15.22461968038</v>
+      </c>
+      <c r="S21">
+        <v>0.02135734651529049</v>
+      </c>
+      <c r="T21">
+        <v>0.02404381909913956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>24.81452533333334</v>
+      </c>
+      <c r="H22">
+        <v>74.44357600000001</v>
+      </c>
+      <c r="I22">
+        <v>0.4498745377770991</v>
+      </c>
+      <c r="J22">
+        <v>0.4622625154249573</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04730233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.141907</v>
+      </c>
+      <c r="O22">
+        <v>0.03294128024763935</v>
+      </c>
+      <c r="P22">
+        <v>0.036091037503834</v>
+      </c>
+      <c r="Q22">
+        <v>1.173784948825778</v>
+      </c>
+      <c r="R22">
+        <v>10.564064539432</v>
+      </c>
+      <c r="S22">
+        <v>0.01481944322519264</v>
+      </c>
+      <c r="T22">
+        <v>0.01668353378081878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>24.81452533333334</v>
+      </c>
+      <c r="H23">
+        <v>74.44357600000001</v>
+      </c>
+      <c r="I23">
+        <v>0.4498745377770991</v>
+      </c>
+      <c r="J23">
+        <v>0.4622625154249573</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.3759595</v>
+      </c>
+      <c r="N23">
+        <v>0.751919</v>
+      </c>
+      <c r="O23">
+        <v>0.2618176816773457</v>
+      </c>
+      <c r="P23">
+        <v>0.191234659522401</v>
+      </c>
+      <c r="Q23">
+        <v>9.329256537057335</v>
+      </c>
+      <c r="R23">
+        <v>55.975539222344</v>
+      </c>
+      <c r="S23">
+        <v>0.1177851085264676</v>
+      </c>
+      <c r="T23">
+        <v>0.08840061474726037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24.81452533333334</v>
+      </c>
+      <c r="H24">
+        <v>74.44357600000001</v>
+      </c>
+      <c r="I24">
+        <v>0.4498745377770991</v>
+      </c>
+      <c r="J24">
+        <v>0.4622625154249573</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.75392</v>
+      </c>
+      <c r="N24">
+        <v>2.26176</v>
+      </c>
+      <c r="O24">
+        <v>0.5250288570183343</v>
+      </c>
+      <c r="P24">
+        <v>0.5752307143740027</v>
+      </c>
+      <c r="Q24">
+        <v>18.70816693930667</v>
+      </c>
+      <c r="R24">
+        <v>168.37350245376</v>
+      </c>
+      <c r="S24">
+        <v>0.2361971143707618</v>
+      </c>
+      <c r="T24">
+        <v>0.2659075969762217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24.81452533333334</v>
+      </c>
+      <c r="H25">
+        <v>74.44357600000001</v>
+      </c>
+      <c r="I25">
+        <v>0.4498745377770991</v>
+      </c>
+      <c r="J25">
+        <v>0.4622625154249573</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.2587773333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.776332</v>
+      </c>
+      <c r="O25">
+        <v>0.1802121810566805</v>
+      </c>
+      <c r="P25">
+        <v>0.1974435885997622</v>
+      </c>
+      <c r="Q25">
+        <v>6.421436693692446</v>
+      </c>
+      <c r="R25">
+        <v>57.79293024323201</v>
+      </c>
+      <c r="S25">
+        <v>0.08107287165467703</v>
+      </c>
+      <c r="T25">
+        <v>0.09127076992065652</v>
       </c>
     </row>
   </sheetData>
